--- a/2013.6.29.xlsx
+++ b/2013.6.29.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$64</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +54,170 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板、本子、笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶装水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晒衣服架子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜刀五件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插线板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电饭煲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013/6/17日以前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打扫卫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榻榻米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张书瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张书瑞总共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈星凌总共</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,15 +565,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -465,7 +635,864 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>41452</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>178.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>41452</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>41452</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>287</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>41452</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>41449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>41449</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>41449</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>100.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>41448</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>141.9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>41448</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>11.9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>41448</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>41447</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>41447</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>41447</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>23.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>41447</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>41447</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>41447</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>105.2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>1465</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>41446</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>41445</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>41445</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>41445</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>199</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>41445</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>10.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>6.4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>248.6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>176.2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>41443</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>10.4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>41443</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>300</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>78.7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>999</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>2397.1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>3798</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>2800</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>8000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56">
+        <v>489</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>890</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58">
+        <v>1056</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>49.7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>89</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61">
+        <v>45.5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62">
+        <v>575.20000000000005</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <v>1196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64">
+        <v>228</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66">
+        <v>14505.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>13800.6</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="D1:D64"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
